--- a/files/Сгруппированный заказ.xlsx
+++ b/files/Сгруппированный заказ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>POSTER-BITVA.MATVEEVD-GLOSS-6</t>
+          <t>POSTER-ATOMICHEART-GLOSS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Постеры Дмитрий Матвеев Чернокнижник постеры Интерьерные</t>
+          <t>Постер Scally Milano постер Интерьерный</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,12 +468,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>POSTER-NINETIES-GLOSS</t>
+          <t>POSTER-BLACKPINK-GLOSS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Постеры в стиле девяностых 90-е постеры Интерьерные</t>
+          <t>Постеры OG Buda картина А3 набор</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -483,165 +483,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POSTER-BITVA.MATVEEVD-GLOSS-3</t>
+          <t>POSTER-BLACKPINK-MAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Постеры Дмитрий Матвеев Чернокнижник постеры Интерьерные</t>
+          <t>Постер asdasdasd</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>POSTER-BITVA.SHEPSOLEG-MAT-3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Постеры Олег Шепс постеры Интерьерные А3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>POSTER-BITVA.VRAIDOS.CB2-MAT-3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Постеры Виктория Райдос постеры Интерьерные А3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POSTER-DEEPINS-GLOSS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Постеры Тиктокер Дипинс  постеры Интерьерные</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>POSTER-DIMAMASLENNIKOV-GLOSS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Постеры Дима Масленников картина А3 набор</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>POSTER-HJNKAISTARRAIL.4-GLOSS-3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Постеры Honkai: Star Rail игры постеры Интерьерные</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>POSTER-LOVV66-3-GLOSS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Постер певец Lovv66 постеры Интерьерные</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>POSTER-OGBUDA-MAT</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Постеры OG Buda картина А3 набор</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>POSTER-SCALLYMILANO-1-GLOSS</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Постер Scally Milano постер Интерьерный</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>POSTER-WEDNESDAY-MAT</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Постеры сериал Wednesday  картина А3 набор</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POSTER-ZXCURSED-MAT-3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Постеры Zxcursed стример Курсед постеры Интерьерные А3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
